--- a/快收单_改版技术方案excel.xlsx
+++ b/快收单_改版技术方案excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
   <si>
     <t>此文稿由 Numbers 表格导出。所有表格均已转换为 Excel 工作表。每张 Numbers 工作表上的所有其他对象都已放置在单独的工作表中。请注意其中的公式计算可能与 Excel 不同。</t>
   </si>
@@ -28,12 +28,46 @@
     <t>Excel 工作表名称</t>
   </si>
   <si>
+    <t>导出摘要</t>
+  </si>
+  <si>
+    <t>表格 1</t>
+  </si>
+  <si>
     <t>iOS</t>
   </si>
   <si>
     <t>未处理  去掉  升级</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>iOS - 未处理  去掉  升级</t>
+    </r>
+  </si>
+  <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t>去掉</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>android - 去掉</t>
+    </r>
+  </si>
+  <si>
     <t>iOS - 未处理  去掉  升级</t>
   </si>
   <si>
@@ -49,6 +83,9 @@
     <t>解决方式</t>
   </si>
   <si>
+    <t>示例demo</t>
+  </si>
+  <si>
     <t>处理人</t>
   </si>
   <si>
@@ -76,9 +113,6 @@
     <t>抽屉效果</t>
   </si>
   <si>
-    <t>去掉</t>
-  </si>
-  <si>
     <t>SVProgressHUD</t>
   </si>
   <si>
@@ -220,6 +254,12 @@
     <t>改为target和环境一对一关系</t>
   </si>
   <si>
+    <t>BaseProject_ios</t>
+  </si>
+  <si>
+    <t>王迪</t>
+  </si>
+  <si>
     <t>APNs证书配置</t>
   </si>
   <si>
@@ -280,6 +320,9 @@
     <t>基于runtime延迟响应</t>
   </si>
   <si>
+    <t>洪清</t>
+  </si>
+  <si>
     <t>系统弹框太单调</t>
   </si>
   <si>
@@ -290,9 +333,6 @@
   </si>
   <si>
     <t>（待解决）</t>
-  </si>
-  <si>
-    <t>android</t>
   </si>
   <si>
     <t>android - 去掉</t>
@@ -413,7 +453,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -430,14 +470,19 @@
       <name val="Helvetica"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <u val="single"/>
       <sz val="12"/>
       <color indexed="11"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="12"/>
+      <sz val="13"/>
+      <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
@@ -448,7 +493,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="18"/>
+      <color indexed="20"/>
       <name val="PingFang SC Regular"/>
     </font>
     <font>
@@ -458,12 +503,12 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="19"/>
+      <color indexed="22"/>
       <name val="PingFang SC Regular"/>
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="19"/>
+      <color indexed="22"/>
       <name val="PingFang SC Regular"/>
     </font>
     <font>
@@ -473,51 +518,61 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="20"/>
+      <color indexed="23"/>
+      <name val="PingFang SC Regular"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="24"/>
       <name val="宋体"/>
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="20"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="24"/>
       <name val="Helvetica"/>
     </font>
     <font>
       <b val="1"/>
       <u val="single"/>
       <sz val="11"/>
-      <color indexed="12"/>
+      <color indexed="25"/>
       <name val="Helvetica"/>
     </font>
     <font>
       <b val="1"/>
       <u val="single"/>
       <sz val="11"/>
-      <color indexed="21"/>
+      <color indexed="26"/>
       <name val="Helvetica"/>
     </font>
     <font>
       <b val="1"/>
       <u val="single"/>
       <sz val="11"/>
-      <color indexed="22"/>
+      <color indexed="27"/>
       <name val="Helvetica"/>
     </font>
     <font>
       <b val="1"/>
       <u val="single"/>
       <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="28"/>
       <name val="Helvetica"/>
     </font>
     <font>
       <b val="1"/>
       <u val="single"/>
       <sz val="11"/>
-      <color indexed="18"/>
+      <color indexed="29"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,12 +599,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="19"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="21"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -559,13 +632,265 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
+        <color indexed="17"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
       </top>
       <bottom style="thin">
         <color indexed="16"/>
@@ -574,13 +899,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="15"/>
+        <color indexed="18"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
+        <color indexed="17"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="17"/>
       </top>
       <bottom style="thin">
         <color indexed="16"/>
@@ -589,13 +914,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="15"/>
+        <color indexed="17"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="17"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="17"/>
       </top>
       <bottom style="thin">
         <color indexed="16"/>
@@ -604,193 +929,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="17"/>
       </left>
       <right style="thin">
         <color indexed="16"/>
       </right>
       <top style="thin">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
+        <color indexed="17"/>
       </top>
       <bottom style="thin">
         <color indexed="16"/>
@@ -799,31 +944,46 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="15"/>
+        <color indexed="17"/>
       </left>
       <right style="thin">
-        <color indexed="16"/>
+        <color indexed="17"/>
       </right>
       <top style="thin">
-        <color indexed="16"/>
+        <color indexed="17"/>
       </top>
       <bottom style="thin">
-        <color indexed="15"/>
+        <color indexed="18"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="15"/>
+        <color indexed="17"/>
       </left>
       <right style="thin">
-        <color indexed="16"/>
+        <color indexed="18"/>
       </right>
       <top style="thin">
-        <color indexed="15"/>
+        <color indexed="18"/>
       </top>
       <bottom style="thin">
-        <color indexed="15"/>
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,7 +993,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -849,136 +1009,205 @@
     <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1001,18 +1230,24 @@
       <rgbColor rgb="015e88b1"/>
       <rgbColor rgb="01eef3f4"/>
       <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffad1915"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff5e88b1"/>
+      <rgbColor rgb="ffeef3f4"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="fffefffe"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ffce222b"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffff2c21"/>
+      <rgbColor rgb="ff6ec038"/>
       <rgbColor rgb="ff165778"/>
+      <rgbColor rgb="ffad1915"/>
       <rgbColor rgb="ff9d44b8"/>
-      <rgbColor rgb="ffffe061"/>
-      <rgbColor rgb="ff79ae3d"/>
+      <rgbColor rgb="fffee060"/>
+      <rgbColor rgb="ff79ad3d"/>
+      <rgbColor rgb="ffce222a"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1023,13 +1258,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
+      <xdr:colOff>110490</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>701040</xdr:colOff>
+      <xdr:colOff>681990</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>70561</xdr:rowOff>
     </xdr:to>
@@ -1040,8 +1275,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="129539" y="-431902"/>
-          <a:ext cx="571501" cy="356947"/>
+          <a:off x="110489" y="-23280"/>
+          <a:ext cx="571501" cy="356948"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1084,16 +1319,12 @@
                 <a:noFill/>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:hueOff val="-104259"/>
-                  <a:satOff val="-22231"/>
-                  <a:lumOff val="-18174"/>
-                </a:schemeClr>
+                <a:srgbClr val="AE1A16"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Helvetica"/>
+              <a:ea typeface="Helvetica"/>
+              <a:cs typeface="Helvetica"/>
               <a:sym typeface="Helvetica"/>
             </a:defRPr>
           </a:pPr>
@@ -1103,16 +1334,12 @@
                 <a:noFill/>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:hueOff val="-104259"/>
-                  <a:satOff val="-22231"/>
-                  <a:lumOff val="-18174"/>
-                </a:schemeClr>
+                <a:srgbClr val="AE1A16"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Helvetica"/>
+              <a:ea typeface="Helvetica"/>
+              <a:cs typeface="Helvetica"/>
               <a:sym typeface="Helvetica"/>
             </a:rPr>
             <a:t>未处理</a:t>
@@ -1125,13 +1352,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>246380</xdr:colOff>
+      <xdr:colOff>227330</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>678180</xdr:colOff>
+      <xdr:colOff>659130</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>70561</xdr:rowOff>
     </xdr:to>
@@ -1142,8 +1369,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1490980" y="-431902"/>
-          <a:ext cx="431801" cy="356947"/>
+          <a:off x="1471930" y="-23280"/>
+          <a:ext cx="431801" cy="356948"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1186,16 +1413,12 @@
                 <a:noFill/>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:hueOff val="67146"/>
-                  <a:satOff val="-15221"/>
-                  <a:lumOff val="17143"/>
-                </a:schemeClr>
+                <a:srgbClr val="9E44B8"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Helvetica"/>
+              <a:ea typeface="Helvetica"/>
+              <a:cs typeface="Helvetica"/>
               <a:sym typeface="Helvetica"/>
             </a:defRPr>
           </a:pPr>
@@ -1205,16 +1428,12 @@
                 <a:noFill/>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:hueOff val="67146"/>
-                  <a:satOff val="-15221"/>
-                  <a:lumOff val="17143"/>
-                </a:schemeClr>
+                <a:srgbClr val="9E44B8"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Helvetica"/>
+              <a:ea typeface="Helvetica"/>
+              <a:cs typeface="Helvetica"/>
               <a:sym typeface="Helvetica"/>
             </a:rPr>
             <a:t>去掉</a:t>
@@ -1227,13 +1446,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1668145</xdr:colOff>
+      <xdr:colOff>1649095</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>17145</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2080895</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>70561</xdr:rowOff>
     </xdr:to>
@@ -1244,8 +1463,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2912745" y="-431902"/>
-          <a:ext cx="431801" cy="356947"/>
+          <a:off x="2893695" y="-23280"/>
+          <a:ext cx="431801" cy="356948"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1288,16 +1507,12 @@
                 <a:noFill/>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:hueOff val="-91805"/>
-                  <a:satOff val="12516"/>
-                  <a:lumOff val="12246"/>
-                </a:schemeClr>
+                <a:srgbClr val="FFE161"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Helvetica"/>
+              <a:ea typeface="Helvetica"/>
+              <a:cs typeface="Helvetica"/>
               <a:sym typeface="Helvetica"/>
             </a:defRPr>
           </a:pPr>
@@ -1307,16 +1522,12 @@
                 <a:noFill/>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:hueOff val="-91805"/>
-                  <a:satOff val="12516"/>
-                  <a:lumOff val="12246"/>
-                </a:schemeClr>
+                <a:srgbClr val="FFE161"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Helvetica"/>
+              <a:ea typeface="Helvetica"/>
+              <a:cs typeface="Helvetica"/>
               <a:sym typeface="Helvetica"/>
             </a:rPr>
             <a:t>升级</a:t>
@@ -1329,13 +1540,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>671829</xdr:colOff>
+      <xdr:colOff>652779</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1243329</xdr:colOff>
+      <xdr:colOff>1224279</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>70561</xdr:rowOff>
     </xdr:to>
@@ -1346,8 +1557,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3999229" y="-431902"/>
-          <a:ext cx="571501" cy="356947"/>
+          <a:off x="3980179" y="-23280"/>
+          <a:ext cx="571501" cy="356948"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1390,16 +1601,12 @@
                 <a:noFill/>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:hueOff val="-492285"/>
-                  <a:satOff val="-6922"/>
-                  <a:lumOff val="-2545"/>
-                </a:schemeClr>
+                <a:srgbClr val="79AE3D"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Helvetica"/>
+              <a:ea typeface="Helvetica"/>
+              <a:cs typeface="Helvetica"/>
               <a:sym typeface="Helvetica"/>
             </a:defRPr>
           </a:pPr>
@@ -1409,16 +1616,12 @@
                 <a:noFill/>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:hueOff val="-492285"/>
-                  <a:satOff val="-6922"/>
-                  <a:lumOff val="-2545"/>
-                </a:schemeClr>
+                <a:srgbClr val="79AE3D"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Helvetica"/>
+              <a:ea typeface="Helvetica"/>
+              <a:cs typeface="Helvetica"/>
               <a:sym typeface="Helvetica"/>
             </a:rPr>
             <a:t>已处理</a:t>
@@ -1436,13 +1639,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
+      <xdr:colOff>184150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
+      <xdr:colOff>755650</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>83261</xdr:rowOff>
     </xdr:to>
@@ -1453,7 +1656,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="203200" y="-328080"/>
+          <a:off x="184150" y="-23280"/>
           <a:ext cx="571500" cy="356948"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1497,16 +1700,12 @@
                 <a:noFill/>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:hueOff val="-361660"/>
-                  <a:satOff val="-28656"/>
-                  <a:lumOff val="-9266"/>
-                </a:schemeClr>
+                <a:srgbClr val="CE222A"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Helvetica"/>
+              <a:ea typeface="Helvetica"/>
+              <a:cs typeface="Helvetica"/>
               <a:sym typeface="Helvetica"/>
             </a:defRPr>
           </a:pPr>
@@ -1516,16 +1715,12 @@
                 <a:noFill/>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:hueOff val="-361660"/>
-                  <a:satOff val="-28656"/>
-                  <a:lumOff val="-9266"/>
-                </a:schemeClr>
+                <a:srgbClr val="CE222A"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Helvetica"/>
+              <a:ea typeface="Helvetica"/>
+              <a:cs typeface="Helvetica"/>
               <a:sym typeface="Helvetica"/>
             </a:rPr>
             <a:t>未处理</a:t>
@@ -1538,13 +1733,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>194733</xdr:colOff>
+      <xdr:colOff>175682</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>626533</xdr:colOff>
+      <xdr:colOff>607483</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>83261</xdr:rowOff>
     </xdr:to>
@@ -1555,7 +1750,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1210733" y="-328080"/>
+          <a:off x="1191682" y="-23280"/>
           <a:ext cx="431801" cy="356948"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1599,16 +1794,12 @@
                 <a:noFill/>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:hueOff val="67146"/>
-                  <a:satOff val="-15221"/>
-                  <a:lumOff val="17143"/>
-                </a:schemeClr>
+                <a:srgbClr val="9E44B8"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Helvetica"/>
+              <a:ea typeface="Helvetica"/>
+              <a:cs typeface="Helvetica"/>
               <a:sym typeface="Helvetica"/>
             </a:defRPr>
           </a:pPr>
@@ -1618,16 +1809,12 @@
                 <a:noFill/>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:hueOff val="67146"/>
-                  <a:satOff val="-15221"/>
-                  <a:lumOff val="17143"/>
-                </a:schemeClr>
+                <a:srgbClr val="9E44B8"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Helvetica"/>
+              <a:ea typeface="Helvetica"/>
+              <a:cs typeface="Helvetica"/>
               <a:sym typeface="Helvetica"/>
             </a:rPr>
             <a:t>去掉</a:t>
@@ -1640,13 +1827,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1106057</xdr:colOff>
+      <xdr:colOff>1087006</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1537857</xdr:colOff>
+      <xdr:colOff>1518806</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>83261</xdr:rowOff>
     </xdr:to>
@@ -1657,7 +1844,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2122057" y="-328080"/>
+          <a:off x="2103006" y="-23280"/>
           <a:ext cx="431801" cy="356948"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1701,16 +1888,12 @@
                 <a:noFill/>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:hueOff val="-91805"/>
-                  <a:satOff val="12516"/>
-                  <a:lumOff val="12246"/>
-                </a:schemeClr>
+                <a:srgbClr val="FFE161"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Helvetica"/>
+              <a:ea typeface="Helvetica"/>
+              <a:cs typeface="Helvetica"/>
               <a:sym typeface="Helvetica"/>
             </a:defRPr>
           </a:pPr>
@@ -1720,16 +1903,12 @@
                 <a:noFill/>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:hueOff val="-91805"/>
-                  <a:satOff val="12516"/>
-                  <a:lumOff val="12246"/>
-                </a:schemeClr>
+                <a:srgbClr val="FFE161"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Helvetica"/>
+              <a:ea typeface="Helvetica"/>
+              <a:cs typeface="Helvetica"/>
               <a:sym typeface="Helvetica"/>
             </a:rPr>
             <a:t>升级</a:t>
@@ -1742,13 +1921,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>170490</xdr:colOff>
+      <xdr:colOff>151439</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>741990</xdr:colOff>
+      <xdr:colOff>722940</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>83261</xdr:rowOff>
     </xdr:to>
@@ -1759,7 +1938,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3269290" y="-328080"/>
+          <a:off x="3250239" y="-23280"/>
           <a:ext cx="571501" cy="356948"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1803,16 +1982,12 @@
                 <a:noFill/>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:hueOff val="-492285"/>
-                  <a:satOff val="-6922"/>
-                  <a:lumOff val="-2545"/>
-                </a:schemeClr>
+                <a:srgbClr val="79AE3D"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Helvetica"/>
+              <a:ea typeface="Helvetica"/>
+              <a:cs typeface="Helvetica"/>
               <a:sym typeface="Helvetica"/>
             </a:defRPr>
           </a:pPr>
@@ -1822,16 +1997,12 @@
                 <a:noFill/>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:hueOff val="-492285"/>
-                  <a:satOff val="-6922"/>
-                  <a:lumOff val="-2545"/>
-                </a:schemeClr>
+                <a:srgbClr val="79AE3D"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Helvetica"/>
+              <a:ea typeface="Helvetica"/>
+              <a:cs typeface="Helvetica"/>
               <a:sym typeface="Helvetica"/>
             </a:rPr>
             <a:t>已处理</a:t>
@@ -1855,10 +2026,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="404040"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BFBFBF"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="499BC9"/>
@@ -1887,14 +2058,14 @@
     </a:clrScheme>
     <a:fontScheme name="Blank">
       <a:majorFont>
-        <a:latin typeface="Helvetica"/>
-        <a:ea typeface="Helvetica"/>
-        <a:cs typeface="Helvetica"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica"/>
-        <a:ea typeface="Helvetica"/>
-        <a:cs typeface="Helvetica"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Blank">
@@ -2052,14 +2223,15 @@
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
-          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
-        </a:blipFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
@@ -2074,7 +2246,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -2089,24 +2261,18 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
-                <a:srgbClr val="000000">
-                  <a:alpha val="31034"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
+            <a:latin typeface="Helvetica"/>
+            <a:ea typeface="Helvetica"/>
+            <a:cs typeface="Helvetica"/>
             <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
@@ -2355,14 +2521,20 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="6350" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -2651,7 +2823,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -2675,9 +2847,9 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
+            <a:latin typeface="Helvetica"/>
+            <a:ea typeface="Helvetica"/>
+            <a:cs typeface="Helvetica"/>
             <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
@@ -2929,73 +3101,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="1" max="1" width="2" style="6" customWidth="1"/>
     <col min="2" max="4" width="33.6016" customWidth="1"/>
+    <col min="2" max="2" width="33.6719" style="6" customWidth="1"/>
+    <col min="3" max="3" width="33.6719" style="6" customWidth="1"/>
+    <col min="4" max="4" width="33.6719" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10" style="6" customWidth="1"/>
+    <col min="6" max="256" width="10" style="6" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+    </row>
     <row r="3" ht="50" customHeight="1">
-      <c r="B3" t="s" s="1">
+      <c r="A3" s="10"/>
+      <c r="B3" t="s" s="13">
         <v>0</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7">
-      <c r="B7" t="s" s="2">
+      <c r="A7" s="10"/>
+      <c r="B7" t="s" s="14">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" t="s" s="14">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" t="s" s="14">
         <v>3</v>
       </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9">
-      <c r="B9" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="10"/>
+      <c r="B9" t="s" s="15">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="A10" s="10"/>
+      <c r="B10" s="17"/>
+      <c r="C10" t="s" s="18">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s" s="19">
+        <v>8</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" ht="13" customHeight="1">
+      <c r="A11" s="10"/>
       <c r="B11" t="s" s="3">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-    </row>
-    <row r="12">
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" ht="13" customHeight="1">
+      <c r="A12" s="20"/>
       <c r="B12" s="4"/>
       <c r="C12" t="s" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>93</v>
+        <v>12</v>
+      </c>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13">
+      <c r="B13" t="s" s="3">
+        <v>101</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="4"/>
+      <c r="C14" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s" s="5">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" location="'iOS - 未处理  去掉  升级'!R1C1" tooltip="" display="iOS - 未处理  去掉  升级"/>
-    <hyperlink ref="D12" location="'android - 去掉'!R1C1" tooltip="" display="android - 去掉"/>
+    <hyperlink ref="D10" location="'导出摘要'!R1C1" tooltip="" display="导出摘要"/>
+    <hyperlink ref="D12" location="'iOS - 未处理  去掉  升级'!R1C1" tooltip="" display="iOS - 未处理  去掉  升级"/>
+    <hyperlink ref="D14" location="'android - 去掉'!R1C1" tooltip="" display="android - 去掉"/>
   </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3004,491 +3263,544 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="6" customWidth="1"/>
-    <col min="2" max="3" width="27.3281" style="6" customWidth="1"/>
-    <col min="4" max="4" width="35.6875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="37.6953" style="6" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="25" customWidth="1"/>
+    <col min="2" max="3" width="27.3516" style="25" customWidth="1"/>
+    <col min="4" max="5" width="35.6719" style="25" customWidth="1"/>
+    <col min="6" max="6" width="37.6719" style="25" customWidth="1"/>
+    <col min="7" max="256" width="16.3516" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.55" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s" s="8">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s" s="8">
+      <c r="A1" t="s" s="26">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s" s="27">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s" s="27">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s" s="27">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s" s="27">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s" s="28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" ht="22.55" customHeight="1">
+      <c r="A2" t="s" s="29">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s" s="30">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="31">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s" s="32">
+        <v>22</v>
+      </c>
+      <c r="E2" s="32"/>
+      <c r="F2" t="s" s="33">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" ht="22.35" customHeight="1">
+      <c r="A3" t="s" s="34">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s" s="35">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s" s="36">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s" s="37">
         <v>10</v>
       </c>
-      <c r="E1" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" ht="22.55" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s" s="12">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s" s="13">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" ht="22.35" customHeight="1">
-      <c r="A3" t="s" s="15">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s" s="16">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s" s="17">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s" s="18">
-        <v>20</v>
-      </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" s="20"/>
-      <c r="B4" t="s" s="16">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s" s="17">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s" s="18">
-        <v>23</v>
-      </c>
-      <c r="E4" s="19"/>
+      <c r="A4" s="39"/>
+      <c r="B4" t="s" s="35">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s" s="36">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s" s="37">
+        <v>29</v>
+      </c>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" t="s" s="21">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s" s="22">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s" s="18">
-        <v>26</v>
-      </c>
-      <c r="E5" s="19"/>
+      <c r="A5" s="39"/>
+      <c r="B5" t="s" s="40">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s" s="41">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s" s="37">
+        <v>32</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" t="s" s="21">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s" s="22">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s" s="18">
-        <v>20</v>
-      </c>
-      <c r="E6" s="19"/>
+      <c r="A6" s="39"/>
+      <c r="B6" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s" s="41">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s" s="37">
+        <v>10</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" ht="22.35" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" t="s" s="21">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s" s="22">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s" s="18">
-        <v>20</v>
-      </c>
-      <c r="E7" s="19"/>
+      <c r="A7" s="39"/>
+      <c r="B7" t="s" s="40">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s" s="41">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s" s="37">
+        <v>10</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" ht="22.35" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" t="s" s="23">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s" s="22">
+      <c r="A8" s="39"/>
+      <c r="B8" t="s" s="42">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s" s="41">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s" s="37">
         <v>32</v>
       </c>
-      <c r="D8" t="s" s="18">
-        <v>26</v>
-      </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
     </row>
     <row r="9" ht="22.35" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" t="s" s="21">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s" s="22">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s" s="18">
-        <v>26</v>
-      </c>
-      <c r="E9" s="19"/>
+      <c r="A9" s="39"/>
+      <c r="B9" t="s" s="40">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s" s="41">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s" s="37">
+        <v>32</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
     </row>
     <row r="10" ht="22.35" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" t="s" s="21">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s" s="22">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s" s="18">
-        <v>37</v>
-      </c>
-      <c r="E10" s="19"/>
+      <c r="A10" s="39"/>
+      <c r="B10" t="s" s="40">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s" s="41">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s" s="37">
+        <v>43</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
     </row>
     <row r="11" ht="22.35" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" t="s" s="21">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s" s="22">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s" s="18">
-        <v>26</v>
-      </c>
-      <c r="E11" s="19"/>
+      <c r="A11" s="39"/>
+      <c r="B11" t="s" s="40">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s" s="41">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s" s="37">
+        <v>32</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" ht="22.35" customHeight="1">
-      <c r="A12" s="20"/>
-      <c r="B12" t="s" s="21">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s" s="22">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s" s="18">
-        <v>26</v>
-      </c>
-      <c r="E12" s="19"/>
+      <c r="A12" s="39"/>
+      <c r="B12" t="s" s="40">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s" s="41">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s" s="37">
+        <v>32</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" ht="22.35" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" t="s" s="21">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s" s="22">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s" s="18">
-        <v>26</v>
-      </c>
-      <c r="E13" s="19"/>
+      <c r="A13" s="39"/>
+      <c r="B13" t="s" s="40">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s" s="41">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s" s="37">
+        <v>32</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" ht="22.35" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" t="s" s="21">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s" s="22">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s" s="18">
-        <v>26</v>
-      </c>
-      <c r="E14" s="19"/>
+      <c r="A14" s="39"/>
+      <c r="B14" t="s" s="40">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s" s="41">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s" s="37">
+        <v>32</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
     </row>
     <row r="15" ht="22.35" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" t="s" s="21">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s" s="22">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s" s="18">
-        <v>26</v>
-      </c>
-      <c r="E15" s="19"/>
+      <c r="A15" s="39"/>
+      <c r="B15" t="s" s="40">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s" s="41">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s" s="37">
+        <v>32</v>
+      </c>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
     </row>
     <row r="16" ht="22.35" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" t="s" s="21">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s" s="22">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s" s="18">
-        <v>50</v>
-      </c>
-      <c r="E16" s="19"/>
+      <c r="A16" s="39"/>
+      <c r="B16" t="s" s="40">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s" s="41">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s" s="37">
+        <v>56</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" ht="22.35" customHeight="1">
-      <c r="A17" s="20"/>
-      <c r="B17" t="s" s="21">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s" s="22">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s" s="18">
-        <v>26</v>
-      </c>
-      <c r="E17" s="19"/>
+      <c r="A17" s="39"/>
+      <c r="B17" t="s" s="40">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s" s="41">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s" s="37">
+        <v>32</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" ht="22.35" customHeight="1">
-      <c r="A18" s="20"/>
-      <c r="B18" t="s" s="21">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s" s="22">
-        <v>54</v>
-      </c>
-      <c r="D18" t="s" s="18">
-        <v>26</v>
-      </c>
-      <c r="E18" s="19"/>
+      <c r="A18" s="39"/>
+      <c r="B18" t="s" s="40">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s" s="41">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s" s="37">
+        <v>32</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" ht="22.35" customHeight="1">
-      <c r="A19" s="20"/>
-      <c r="B19" t="s" s="21">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s" s="22">
-        <v>56</v>
-      </c>
-      <c r="D19" t="s" s="18">
-        <v>26</v>
-      </c>
-      <c r="E19" s="19"/>
+      <c r="A19" s="39"/>
+      <c r="B19" t="s" s="40">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s" s="41">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s" s="37">
+        <v>32</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
     </row>
     <row r="20" ht="22.35" customHeight="1">
-      <c r="A20" s="20"/>
-      <c r="B20" t="s" s="21">
-        <v>57</v>
-      </c>
-      <c r="C20" t="s" s="22">
-        <v>58</v>
-      </c>
-      <c r="D20" t="s" s="18">
-        <v>26</v>
-      </c>
-      <c r="E20" s="19"/>
+      <c r="A20" s="39"/>
+      <c r="B20" t="s" s="40">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s" s="41">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s" s="37">
+        <v>32</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
     </row>
     <row r="21" ht="22.35" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" t="s" s="21">
-        <v>59</v>
-      </c>
-      <c r="C21" t="s" s="22">
-        <v>60</v>
-      </c>
-      <c r="D21" t="s" s="18">
-        <v>20</v>
-      </c>
-      <c r="E21" s="19"/>
+      <c r="A21" s="39"/>
+      <c r="B21" t="s" s="40">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s" s="41">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s" s="37">
+        <v>10</v>
+      </c>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
     </row>
     <row r="22" ht="22.35" customHeight="1">
-      <c r="A22" s="20"/>
-      <c r="B22" t="s" s="21">
-        <v>61</v>
-      </c>
-      <c r="C22" t="s" s="22">
-        <v>62</v>
-      </c>
-      <c r="D22" t="s" s="18">
-        <v>63</v>
-      </c>
-      <c r="E22" s="19"/>
+      <c r="A22" s="39"/>
+      <c r="B22" t="s" s="40">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s" s="41">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s" s="37">
+        <v>69</v>
+      </c>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
     </row>
     <row r="23" ht="22.35" customHeight="1">
-      <c r="A23" t="s" s="15">
-        <v>64</v>
-      </c>
-      <c r="B23" t="s" s="21">
-        <v>65</v>
-      </c>
-      <c r="C23" t="s" s="22">
-        <v>66</v>
-      </c>
-      <c r="D23" t="s" s="18">
-        <v>67</v>
-      </c>
-      <c r="E23" s="19"/>
+      <c r="A23" t="s" s="34">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s" s="43">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s" s="41">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s" s="44">
+        <v>73</v>
+      </c>
+      <c r="E23" t="s" s="44">
+        <v>74</v>
+      </c>
+      <c r="F23" t="s" s="45">
+        <v>75</v>
+      </c>
     </row>
     <row r="24" ht="22.35" customHeight="1">
-      <c r="A24" s="20"/>
-      <c r="B24" t="s" s="21">
-        <v>68</v>
-      </c>
-      <c r="C24" t="s" s="22">
-        <v>69</v>
-      </c>
-      <c r="D24" t="s" s="18">
-        <v>70</v>
-      </c>
-      <c r="E24" s="19"/>
+      <c r="A24" s="39"/>
+      <c r="B24" t="s" s="40">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s" s="41">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s" s="37">
+        <v>78</v>
+      </c>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
     </row>
     <row r="25" ht="36.35" customHeight="1">
-      <c r="A25" t="s" s="15">
-        <v>71</v>
-      </c>
-      <c r="B25" t="s" s="21">
-        <v>72</v>
-      </c>
-      <c r="C25" s="24"/>
-      <c r="D25" t="s" s="18">
-        <v>73</v>
-      </c>
-      <c r="E25" s="19"/>
+      <c r="A25" t="s" s="34">
+        <v>79</v>
+      </c>
+      <c r="B25" t="s" s="43">
+        <v>80</v>
+      </c>
+      <c r="C25" s="46"/>
+      <c r="D25" t="s" s="44">
+        <v>81</v>
+      </c>
+      <c r="E25" t="s" s="44">
+        <v>74</v>
+      </c>
+      <c r="F25" t="s" s="45">
+        <v>75</v>
+      </c>
     </row>
     <row r="26" ht="22.35" customHeight="1">
-      <c r="A26" s="20"/>
-      <c r="B26" t="s" s="21">
+      <c r="A26" s="39"/>
+      <c r="B26" t="s" s="43">
+        <v>82</v>
+      </c>
+      <c r="C26" s="46"/>
+      <c r="D26" t="s" s="44">
+        <v>83</v>
+      </c>
+      <c r="E26" t="s" s="44">
         <v>74</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" t="s" s="18">
+      <c r="F26" t="s" s="45">
         <v>75</v>
       </c>
-      <c r="E26" s="19"/>
     </row>
     <row r="27" ht="36.35" customHeight="1">
-      <c r="A27" s="20"/>
-      <c r="B27" t="s" s="21">
-        <v>76</v>
-      </c>
-      <c r="C27" s="24"/>
-      <c r="D27" t="s" s="18">
-        <v>77</v>
-      </c>
-      <c r="E27" s="19"/>
+      <c r="A27" s="39"/>
+      <c r="B27" t="s" s="40">
+        <v>84</v>
+      </c>
+      <c r="C27" s="46"/>
+      <c r="D27" t="s" s="37">
+        <v>85</v>
+      </c>
+      <c r="E27" s="37"/>
+      <c r="F27" s="38"/>
     </row>
     <row r="28" ht="22.35" customHeight="1">
-      <c r="A28" s="20"/>
-      <c r="B28" t="s" s="21">
-        <v>78</v>
-      </c>
-      <c r="C28" s="24"/>
-      <c r="D28" t="s" s="18">
-        <v>79</v>
-      </c>
-      <c r="E28" s="19"/>
+      <c r="A28" s="39"/>
+      <c r="B28" t="s" s="40">
+        <v>86</v>
+      </c>
+      <c r="C28" s="46"/>
+      <c r="D28" t="s" s="37">
+        <v>87</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="38"/>
     </row>
     <row r="29" ht="22.35" customHeight="1">
-      <c r="A29" s="20"/>
-      <c r="B29" t="s" s="21">
-        <v>80</v>
-      </c>
-      <c r="C29" s="24"/>
-      <c r="D29" t="s" s="18">
-        <v>81</v>
-      </c>
-      <c r="E29" s="19"/>
+      <c r="A29" s="39"/>
+      <c r="B29" t="s" s="40">
+        <v>88</v>
+      </c>
+      <c r="C29" s="46"/>
+      <c r="D29" t="s" s="37">
+        <v>89</v>
+      </c>
+      <c r="E29" s="37"/>
+      <c r="F29" s="38"/>
     </row>
     <row r="30" ht="22.35" customHeight="1">
-      <c r="A30" s="20"/>
-      <c r="B30" t="s" s="21">
-        <v>82</v>
-      </c>
-      <c r="C30" s="24"/>
-      <c r="D30" t="s" s="18">
-        <v>83</v>
-      </c>
-      <c r="E30" s="19"/>
+      <c r="A30" s="39"/>
+      <c r="B30" t="s" s="40">
+        <v>90</v>
+      </c>
+      <c r="C30" s="46"/>
+      <c r="D30" t="s" s="37">
+        <v>91</v>
+      </c>
+      <c r="E30" s="37"/>
+      <c r="F30" s="38"/>
     </row>
     <row r="31" ht="36.35" customHeight="1">
-      <c r="A31" s="20"/>
-      <c r="B31" t="s" s="21">
-        <v>84</v>
-      </c>
-      <c r="C31" s="24"/>
-      <c r="D31" t="s" s="18">
-        <v>85</v>
-      </c>
-      <c r="E31" s="19"/>
+      <c r="A31" s="39"/>
+      <c r="B31" t="s" s="40">
+        <v>92</v>
+      </c>
+      <c r="C31" s="46"/>
+      <c r="D31" t="s" s="37">
+        <v>93</v>
+      </c>
+      <c r="E31" s="37"/>
+      <c r="F31" s="38"/>
     </row>
     <row r="32" ht="22.35" customHeight="1">
-      <c r="A32" s="20"/>
-      <c r="B32" t="s" s="21">
-        <v>86</v>
-      </c>
-      <c r="C32" s="24"/>
-      <c r="D32" t="s" s="18">
-        <v>87</v>
-      </c>
-      <c r="E32" s="19"/>
+      <c r="A32" s="39"/>
+      <c r="B32" t="s" s="43">
+        <v>94</v>
+      </c>
+      <c r="C32" s="47"/>
+      <c r="D32" t="s" s="44">
+        <v>95</v>
+      </c>
+      <c r="E32" s="37"/>
+      <c r="F32" t="s" s="45">
+        <v>96</v>
+      </c>
     </row>
     <row r="33" ht="22.35" customHeight="1">
-      <c r="A33" s="20"/>
-      <c r="B33" t="s" s="21">
-        <v>88</v>
-      </c>
-      <c r="C33" s="24"/>
-      <c r="D33" t="s" s="18">
-        <v>89</v>
-      </c>
-      <c r="E33" s="19"/>
+      <c r="A33" s="39"/>
+      <c r="B33" t="s" s="40">
+        <v>97</v>
+      </c>
+      <c r="C33" s="46"/>
+      <c r="D33" t="s" s="37">
+        <v>98</v>
+      </c>
+      <c r="E33" s="37"/>
+      <c r="F33" s="38"/>
     </row>
     <row r="34" ht="22.35" customHeight="1">
-      <c r="A34" s="20"/>
-      <c r="B34" t="s" s="21">
-        <v>90</v>
-      </c>
-      <c r="C34" s="24"/>
-      <c r="D34" t="s" s="18">
-        <v>91</v>
-      </c>
-      <c r="E34" s="19"/>
+      <c r="A34" s="39"/>
+      <c r="B34" t="s" s="40">
+        <v>99</v>
+      </c>
+      <c r="C34" s="46"/>
+      <c r="D34" t="s" s="37">
+        <v>100</v>
+      </c>
+      <c r="E34" s="37"/>
+      <c r="F34" s="38"/>
     </row>
     <row r="35" ht="20.35" customHeight="1">
-      <c r="A35" s="20"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="19"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="38"/>
     </row>
     <row r="36" ht="20.35" customHeight="1">
-      <c r="A36" s="20"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="19"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="38"/>
     </row>
     <row r="37" ht="20.35" customHeight="1">
-      <c r="A37" s="20"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="19"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="38"/>
     </row>
     <row r="38" ht="20.35" customHeight="1">
-      <c r="A38" s="20"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="19"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="38"/>
     </row>
     <row r="39" ht="20.35" customHeight="1">
-      <c r="A39" s="27"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="31"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3499,7 +3811,7 @@
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3512,296 +3824,294 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="32" customWidth="1"/>
-    <col min="2" max="2" width="27.3281" style="32" customWidth="1"/>
-    <col min="3" max="4" width="35.6875" style="32" customWidth="1"/>
-    <col min="5" max="6" width="37.6953" style="32" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="32" customWidth="1"/>
+    <col min="1" max="1" width="13.3516" style="55" customWidth="1"/>
+    <col min="2" max="2" width="27.3516" style="55" customWidth="1"/>
+    <col min="3" max="4" width="35.6719" style="55" customWidth="1"/>
+    <col min="5" max="6" width="37.6719" style="55" customWidth="1"/>
+    <col min="7" max="256" width="16.3516" style="55" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.55" customHeight="1">
-      <c r="A1" t="s" s="33">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s" s="34">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s" s="35">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s" s="34">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s" s="34">
-        <v>11</v>
-      </c>
-      <c r="F1" s="36"/>
+      <c r="A1" t="s" s="56">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s" s="57">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s" s="58">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s" s="57">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s" s="57">
+        <v>18</v>
+      </c>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" ht="78.55" customHeight="1">
-      <c r="A2" t="s" s="37">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s" s="38">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s" s="39">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s" s="13">
-        <v>94</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="A2" t="s" s="60">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s" s="61">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="62">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s" s="32">
+        <v>102</v>
+      </c>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" ht="22.35" customHeight="1">
-      <c r="A3" t="s" s="41">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s" s="16">
-        <v>95</v>
-      </c>
-      <c r="C3" t="s" s="42">
-        <v>96</v>
-      </c>
-      <c r="D3" t="s" s="18">
-        <v>97</v>
-      </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="A3" t="s" s="64">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s" s="35">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s" s="65">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s" s="37">
+        <v>105</v>
+      </c>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
     </row>
     <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" s="44"/>
-      <c r="B4" t="s" s="16">
-        <v>98</v>
-      </c>
-      <c r="C4" t="s" s="42">
-        <v>99</v>
-      </c>
-      <c r="D4" t="s" s="18">
-        <v>100</v>
-      </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="A4" s="67"/>
+      <c r="B4" t="s" s="35">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="65">
+        <v>107</v>
+      </c>
+      <c r="D4" t="s" s="37">
+        <v>108</v>
+      </c>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
     </row>
     <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" s="44"/>
-      <c r="B5" t="s" s="45">
-        <v>101</v>
-      </c>
-      <c r="C5" t="s" s="42">
-        <v>102</v>
-      </c>
-      <c r="D5" t="s" s="18">
-        <v>103</v>
-      </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="A5" s="67"/>
+      <c r="B5" t="s" s="68">
+        <v>109</v>
+      </c>
+      <c r="C5" t="s" s="65">
+        <v>110</v>
+      </c>
+      <c r="D5" t="s" s="37">
+        <v>111</v>
+      </c>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" s="44"/>
-      <c r="B6" t="s" s="16">
-        <v>104</v>
-      </c>
-      <c r="C6" t="s" s="42">
-        <v>105</v>
-      </c>
-      <c r="D6" t="s" s="18">
-        <v>106</v>
-      </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="A6" s="67"/>
+      <c r="B6" t="s" s="35">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s" s="65">
+        <v>113</v>
+      </c>
+      <c r="D6" t="s" s="37">
+        <v>114</v>
+      </c>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
     </row>
     <row r="7" ht="22.35" customHeight="1">
-      <c r="A7" s="44"/>
-      <c r="B7" t="s" s="16">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s" s="42">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s" s="18">
-        <v>107</v>
-      </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="A7" s="67"/>
+      <c r="B7" t="s" s="35">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s" s="65">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s" s="37">
+        <v>115</v>
+      </c>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
     </row>
     <row r="8" ht="22.35" customHeight="1">
-      <c r="A8" s="44"/>
-      <c r="B8" t="s" s="45">
-        <v>108</v>
-      </c>
-      <c r="C8" t="s" s="42">
-        <v>109</v>
-      </c>
-      <c r="D8" t="s" s="18">
-        <v>110</v>
-      </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="A8" s="67"/>
+      <c r="B8" t="s" s="68">
+        <v>116</v>
+      </c>
+      <c r="C8" t="s" s="65">
+        <v>117</v>
+      </c>
+      <c r="D8" t="s" s="37">
+        <v>118</v>
+      </c>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
     </row>
     <row r="9" ht="22.35" customHeight="1">
-      <c r="A9" s="44"/>
-      <c r="B9" t="s" s="45">
-        <v>111</v>
-      </c>
-      <c r="C9" t="s" s="42">
-        <v>112</v>
-      </c>
-      <c r="D9" t="s" s="18">
-        <v>113</v>
-      </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="A9" s="67"/>
+      <c r="B9" t="s" s="68">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s" s="65">
+        <v>120</v>
+      </c>
+      <c r="D9" t="s" s="37">
+        <v>121</v>
+      </c>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
     </row>
     <row r="10" ht="22.35" customHeight="1">
-      <c r="A10" s="44"/>
-      <c r="B10" t="s" s="45">
-        <v>114</v>
-      </c>
-      <c r="C10" t="s" s="42">
-        <v>115</v>
-      </c>
-      <c r="D10" t="s" s="18">
-        <v>116</v>
-      </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
+      <c r="A10" s="67"/>
+      <c r="B10" t="s" s="68">
+        <v>122</v>
+      </c>
+      <c r="C10" t="s" s="65">
+        <v>123</v>
+      </c>
+      <c r="D10" t="s" s="37">
+        <v>124</v>
+      </c>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
     </row>
     <row r="11" ht="22.35" customHeight="1">
-      <c r="A11" t="s" s="41">
-        <v>117</v>
-      </c>
-      <c r="B11" t="s" s="45">
-        <v>118</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" t="s" s="18">
-        <v>119</v>
-      </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
+      <c r="A11" t="s" s="64">
+        <v>125</v>
+      </c>
+      <c r="B11" t="s" s="68">
+        <v>126</v>
+      </c>
+      <c r="C11" s="66"/>
+      <c r="D11" t="s" s="37">
+        <v>127</v>
+      </c>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
     </row>
     <row r="12" ht="36.35" customHeight="1">
-      <c r="A12" s="44"/>
-      <c r="B12" t="s" s="45">
-        <v>120</v>
-      </c>
-      <c r="C12" s="43"/>
-      <c r="D12" t="s" s="18">
-        <v>121</v>
-      </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
+      <c r="A12" s="67"/>
+      <c r="B12" t="s" s="68">
+        <v>128</v>
+      </c>
+      <c r="C12" s="66"/>
+      <c r="D12" t="s" s="37">
+        <v>129</v>
+      </c>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
     </row>
     <row r="13" ht="36.35" customHeight="1">
-      <c r="A13" s="44"/>
-      <c r="B13" t="s" s="45">
-        <v>122</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" t="s" s="18">
-        <v>123</v>
-      </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
+      <c r="A13" s="67"/>
+      <c r="B13" t="s" s="68">
+        <v>130</v>
+      </c>
+      <c r="C13" s="66"/>
+      <c r="D13" t="s" s="37">
+        <v>131</v>
+      </c>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
     </row>
     <row r="14" ht="36.35" customHeight="1">
-      <c r="A14" s="44"/>
-      <c r="B14" t="s" s="45">
-        <v>124</v>
-      </c>
-      <c r="C14" s="43"/>
-      <c r="D14" t="s" s="18">
-        <v>125</v>
-      </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
+      <c r="A14" s="67"/>
+      <c r="B14" t="s" s="68">
+        <v>132</v>
+      </c>
+      <c r="C14" s="66"/>
+      <c r="D14" t="s" s="37">
+        <v>133</v>
+      </c>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
     </row>
     <row r="15" ht="50.35" customHeight="1">
-      <c r="A15" s="44"/>
-      <c r="B15" t="s" s="45">
-        <v>126</v>
-      </c>
-      <c r="C15" s="43"/>
-      <c r="D15" t="s" s="18">
-        <v>127</v>
-      </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
+      <c r="A15" s="67"/>
+      <c r="B15" t="s" s="68">
+        <v>134</v>
+      </c>
+      <c r="C15" s="66"/>
+      <c r="D15" t="s" s="37">
+        <v>135</v>
+      </c>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
     </row>
     <row r="16" ht="22.35" customHeight="1">
-      <c r="A16" s="44"/>
-      <c r="B16" t="s" s="45">
-        <v>128</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" t="s" s="18">
-        <v>129</v>
-      </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
+      <c r="A16" s="67"/>
+      <c r="B16" t="s" s="68">
+        <v>136</v>
+      </c>
+      <c r="C16" s="66"/>
+      <c r="D16" t="s" s="37">
+        <v>137</v>
+      </c>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
     </row>
     <row r="17" ht="22.35" customHeight="1">
-      <c r="A17" s="46"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
     </row>
     <row r="18" ht="22.35" customHeight="1">
-      <c r="A18" s="46"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
     </row>
     <row r="19" ht="22.35" customHeight="1">
-      <c r="A19" s="46"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
     </row>
     <row r="20" ht="22.35" customHeight="1">
-      <c r="A20" s="46"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
     </row>
     <row r="21" ht="22.35" customHeight="1">
-      <c r="A21" s="46"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
     </row>
     <row r="22" ht="22.35" customHeight="1">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
     </row>
     <row r="23" ht="22.35" customHeight="1">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3811,7 +4121,7 @@
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
